--- a/biology/Zoologie/Équille/Équille.xlsx
+++ b/biology/Zoologie/Équille/Équille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quille</t>
+          <t>Équille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire lançon désigne en français plusieurs espèces de petits poissons appartenant tous à la famille des Ammodytidae. Les lançons sont aussi appelés lançons perce sable, anguilles des sables ou équilles, ou bien encore cicerelles pour deux espèces[1]. Le lançon (sans précision) est souvent associé en France à l'espèce Hyperoplus immaculatus, fréquent dans l'Atlantique Nord, également appelé anguille de sable.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire lançon désigne en français plusieurs espèces de petits poissons appartenant tous à la famille des Ammodytidae. Les lançons sont aussi appelés lançons perce sable, anguilles des sables ou équilles, ou bien encore cicerelles pour deux espèces. Le lançon (sans précision) est souvent associé en France à l'espèce Hyperoplus immaculatus, fréquent dans l'Atlantique Nord, également appelé anguille de sable.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quille</t>
+          <t>Équille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,22 @@
           <t>Liste d'espèces appelées « lançon »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lançon — Hyperoplus immaculatus ou Hyperoplus lanceolatus[2]
-Lançon d'Amérique — Ammodytes americanus[1]
-Lançon cicerelle — Gymnammodytes cicerelus[1]
-Lançon commun — Hyperoplus lanceolatus[1]
-Lançon équille — Ammodytes tobianus[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lançon — Hyperoplus immaculatus ou Hyperoplus lanceolatus
+Lançon d'Amérique — Ammodytes americanus
+Lançon cicerelle — Gymnammodytes cicerelus
+Lançon commun — Hyperoplus lanceolatus
+Lançon équille — Ammodytes tobianus
 Lançon gourdeau — Ammodytes hexapterus
-Lançon immaculé — Hyperoplus immaculatus[1]
+Lançon immaculé — Hyperoplus immaculatus
 Lançon du nord — Ammodytes dubius
-Lançon du Pacifique — Ammodytes personatus[1]
+Lançon du Pacifique — Ammodytes personatus
 Auxquels on peut ajouter des espèces comme :
-Équille commune - Ammodytes marinus[1]
-Grande cicerelle - Gymnammodytes semisquamatus[1].</t>
+Équille commune - Ammodytes marinus
+Grande cicerelle - Gymnammodytes semisquamatus.</t>
         </is>
       </c>
     </row>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quille</t>
+          <t>Équille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lançons font tous partie des Ammodytidae. Les différentes espèces sont classées dans trois genres : Ammodytes[3], Gymnammodytes et Hyperoplus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lançons font tous partie des Ammodytidae. Les différentes espèces sont classées dans trois genres : Ammodytes, Gymnammodytes et Hyperoplus.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89quille</t>
+          <t>Équille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Pêche et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Bretagne et en Normandie, on utilise, pour les pêcher, un râteau, ou une houët (butoir à pommes de terre) pour faire des sillons dans le sable, puis le marcheur récolte alors les lançons.
 Les lançons se pêchent également au filet dans les Landes (40), deux personnes suffisant pour le tirer à marée basse.
